--- a/Specimen_Tracker/SpecimenTracking/ExcelData/SUBJECTMASTER.xlsx
+++ b/Specimen_Tracker/SpecimenTracking/ExcelData/SUBJECTMASTER.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C17C190-AD53-4A60-B248-3C051B6B8C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D07E80-8DDC-455D-97DE-840925127138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{943B2A33-46C0-4030-88EB-10B047379A65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -418,9 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FFC54-E33C-4308-BCA0-DB5CFD0F7E6E}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -437,165 +438,166 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B2">
-        <v>210001</v>
+        <v>8108101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B3">
-        <v>210002</v>
+        <v>8108102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B4">
-        <v>210003</v>
+        <v>8108103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B5">
-        <v>210004</v>
+        <v>8108104</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B6">
-        <v>210005</v>
+        <v>8108105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B7">
-        <v>210006</v>
+        <v>8108106</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B8">
-        <v>210007</v>
+        <v>8108107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B9">
-        <v>210008</v>
+        <v>8108108</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B10">
-        <v>210009</v>
+        <v>8108109</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B11">
-        <v>210010</v>
+        <v>8108110</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B12">
-        <v>210011</v>
+        <v>8108111</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B13">
-        <v>210012</v>
+        <v>8108112</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B14">
-        <v>210013</v>
+        <v>8108113</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B15">
-        <v>210014</v>
+        <v>8108114</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B16">
-        <v>210015</v>
+        <v>8108115</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B17">
-        <v>210016</v>
+        <v>8108116</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B18">
-        <v>210017</v>
+        <v>8108117</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B19">
-        <v>210018</v>
+        <v>8108118</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B20">
-        <v>210019</v>
+        <v>8108119</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B21">
-        <v>210020</v>
+        <v>8108120</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B21" xr:uid="{822FFC54-E33C-4308-BCA0-DB5CFD0F7E6E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>